--- a/Output_Backtest/Minimum_Variance_drawdowns.xlsx
+++ b/Output_Backtest/Minimum_Variance_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.009373446441490074</v>
+        <v>-0.009373748561515738</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.02410749375131294</v>
+        <v>-0.0241080423340877</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.02215212063810967</v>
+        <v>-0.02215235592244857</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.01582235009639843</v>
+        <v>-0.01582284929836253</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.003664335175188918</v>
+        <v>-0.00366434812862667</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.00212973854133253</v>
+        <v>-0.002129590294909737</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01514866644818632</v>
+        <v>-0.01514853823512321</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03922207297399276</v>
+        <v>-0.03922150235470973</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.034137644157264</v>
+        <v>-0.03413716730068032</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03210960798404507</v>
+        <v>-0.03210911004286653</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.02301539232208424</v>
+        <v>-0.02301474736648507</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.0243087809261669</v>
+        <v>-0.02430831298798429</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.01803456425349855</v>
+        <v>-0.01803365763895179</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.01276038502043571</v>
+        <v>-0.01275950080340094</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.0129179490960116</v>
+        <v>-0.01291694509506125</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.004847996743116254</v>
+        <v>-0.004847302899694737</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01331755373502074</v>
+        <v>-0.01331732327679461</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.008171549197009267</v>
+        <v>-0.008171216459611535</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.01346838796455466</v>
+        <v>-0.0134679175972528</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.002358506322143522</v>
+        <v>-0.00235826044501058</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.001475167282188041</v>
+        <v>-0.001474960722190567</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.007086377502617544</v>
+        <v>-0.00708638418200645</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02757685164204935</v>
+        <v>-0.02757675861814787</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02132020272777423</v>
+        <v>-0.02131996347079879</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.02255418529587404</v>
+        <v>-0.02255399566144326</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.001260305598966407</v>
+        <v>-0.001260338066197299</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.01131254559607557</v>
+        <v>-0.01131256689345547</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.00265919120963081</v>
+        <v>-0.002659147491108715</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.006171222366210319</v>
+        <v>-0.006171257839636536</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.01420789868586723</v>
+        <v>-0.01420801916949395</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.004705867288089727</v>
+        <v>-0.004705921503166354</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.01635985765842179</v>
+        <v>-0.0163600021894369</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02870658206212515</v>
+        <v>-0.02870687141026337</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.02075581784285094</v>
+        <v>-0.02075587267639294</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01678063731404647</v>
+        <v>-0.01678077342969557</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.008903932497639121</v>
+        <v>-0.008903893024376539</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.0007043011568433561</v>
+        <v>-0.0007043910502465097</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.001535341751517157</v>
+        <v>-0.001535383670417409</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01333704875983664</v>
+        <v>-0.01333706472138113</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01172210880089744</v>
+        <v>-0.01172209299202843</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01453992900435706</v>
+        <v>-0.01453990612951682</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.009539412575451657</v>
+        <v>-0.009539466250434687</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03375907447936823</v>
+        <v>-0.03375900493118935</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04066052572374457</v>
+        <v>-0.04066039204227602</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06375941426702735</v>
+        <v>-0.06375928969211292</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.0954155731018575</v>
+        <v>-0.09541545720340973</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09154811283330365</v>
+        <v>-0.09154796825650501</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1107036780442509</v>
+        <v>-0.1107033704505538</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.09511411939675894</v>
+        <v>-0.09511439166115336</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1180063208580988</v>
+        <v>-0.1180064006727418</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1569929385302034</v>
+        <v>-0.1569931691642819</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1616741370540775</v>
+        <v>-0.1616740961865868</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1306910306764075</v>
+        <v>-0.1306910956384441</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1384125924757552</v>
+        <v>-0.1384127427999198</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1120675022344668</v>
+        <v>-0.1120677857345992</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1320872046695012</v>
+        <v>-0.1320874007525402</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.110512198934735</v>
+        <v>-0.1105124346569492</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1050736020178537</v>
+        <v>-0.1050738564697692</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1159056870419485</v>
+        <v>-0.1159059154519542</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1140214559046012</v>
+        <v>-0.1140215903527907</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.1071313490682292</v>
+        <v>-0.107131574766942</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1118658304651032</v>
+        <v>-0.1118660282430482</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1290213762340557</v>
+        <v>-0.1290216109368852</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1401082306346703</v>
+        <v>-0.1401084843641568</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1114139860541372</v>
+        <v>-0.1114141984903517</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.08834279998028763</v>
+        <v>-0.08834292559540809</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.08594011057619165</v>
+        <v>-0.085940272310656</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.08830709531303073</v>
+        <v>-0.08830733643007249</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07405684353197248</v>
+        <v>-0.07405713734312552</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09252909969086702</v>
+        <v>-0.09252931110701816</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.08254194427964701</v>
+        <v>-0.0825421289836111</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07158341071012077</v>
+        <v>-0.07158368124621396</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.05402026173729599</v>
+        <v>-0.05402049823431896</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.04690814516990166</v>
+        <v>-0.04690836611421483</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.03765048713011736</v>
+        <v>-0.03765068483526305</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.04990861431290579</v>
+        <v>-0.049908787115656</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.0583153293473988</v>
+        <v>-0.05831550227999596</v>
       </c>
     </row>
   </sheetData>

--- a/Output_Backtest/Minimum_Variance_drawdowns.xlsx
+++ b/Output_Backtest/Minimum_Variance_drawdowns.xlsx
@@ -684,7 +684,7 @@
         <v>42338</v>
       </c>
       <c r="B38">
-        <v>-0.009373748561515738</v>
+        <v>-0.009373924194521432</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42369</v>
       </c>
       <c r="B39">
-        <v>-0.0241080423340877</v>
+        <v>-0.02410653549194919</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -700,7 +700,7 @@
         <v>42400</v>
       </c>
       <c r="B40">
-        <v>-0.02215235592244857</v>
+        <v>-0.02215010281114504</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -708,7 +708,7 @@
         <v>42429</v>
       </c>
       <c r="B41">
-        <v>-0.01582284929836253</v>
+        <v>-0.01582070522337653</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -756,7 +756,7 @@
         <v>42613</v>
       </c>
       <c r="B47">
-        <v>-0.00366434812862667</v>
+        <v>-0.003664619453127076</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -764,7 +764,7 @@
         <v>42643</v>
       </c>
       <c r="B48">
-        <v>-0.002129590294909737</v>
+        <v>-0.002129645160777805</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -772,7 +772,7 @@
         <v>42674</v>
       </c>
       <c r="B49">
-        <v>-0.01514853823512321</v>
+        <v>-0.01514875472851958</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -780,7 +780,7 @@
         <v>42704</v>
       </c>
       <c r="B50">
-        <v>-0.03922150235470973</v>
+        <v>-0.03922149425784285</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -788,7 +788,7 @@
         <v>42735</v>
       </c>
       <c r="B51">
-        <v>-0.03413716730068032</v>
+        <v>-0.03413730942805861</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -796,7 +796,7 @@
         <v>42766</v>
       </c>
       <c r="B52">
-        <v>-0.03210911004286653</v>
+        <v>-0.03210900193851389</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -804,7 +804,7 @@
         <v>42794</v>
       </c>
       <c r="B53">
-        <v>-0.02301474736648507</v>
+        <v>-0.02301507672575557</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -812,7 +812,7 @@
         <v>42825</v>
       </c>
       <c r="B54">
-        <v>-0.02430831298798429</v>
+        <v>-0.02430815008317108</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -820,7 +820,7 @@
         <v>42855</v>
       </c>
       <c r="B55">
-        <v>-0.01803365763895179</v>
+        <v>-0.01803394973087448</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -828,7 +828,7 @@
         <v>42886</v>
       </c>
       <c r="B56">
-        <v>-0.01275950080340094</v>
+        <v>-0.01275955861893091</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -836,7 +836,7 @@
         <v>42916</v>
       </c>
       <c r="B57">
-        <v>-0.01291694509506125</v>
+        <v>-0.01291730594730807</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -844,7 +844,7 @@
         <v>42947</v>
       </c>
       <c r="B58">
-        <v>-0.004847302899694737</v>
+        <v>-0.004847391314830648</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -900,7 +900,7 @@
         <v>43159</v>
       </c>
       <c r="B65">
-        <v>-0.01331732327679461</v>
+        <v>-0.01331708979592785</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -908,7 +908,7 @@
         <v>43190</v>
       </c>
       <c r="B66">
-        <v>-0.008171216459611535</v>
+        <v>-0.008171190230053447</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -916,7 +916,7 @@
         <v>43220</v>
       </c>
       <c r="B67">
-        <v>-0.0134679175972528</v>
+        <v>-0.01346795286627264</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -924,7 +924,7 @@
         <v>43251</v>
       </c>
       <c r="B68">
-        <v>-0.00235826044501058</v>
+        <v>-0.002358026926870583</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -932,7 +932,7 @@
         <v>43281</v>
       </c>
       <c r="B69">
-        <v>-0.001474960722190567</v>
+        <v>-0.001474769557358983</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -956,7 +956,7 @@
         <v>43373</v>
       </c>
       <c r="B72">
-        <v>-0.00708638418200645</v>
+        <v>-0.007086575850929832</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -964,7 +964,7 @@
         <v>43404</v>
       </c>
       <c r="B73">
-        <v>-0.02757675861814787</v>
+        <v>-0.0275770908652687</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -972,7 +972,7 @@
         <v>43434</v>
       </c>
       <c r="B74">
-        <v>-0.02131996347079879</v>
+        <v>-0.02131998942188607</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -980,7 +980,7 @@
         <v>43465</v>
       </c>
       <c r="B75">
-        <v>-0.02255399566144326</v>
+        <v>-0.02255408739227279</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>43738</v>
       </c>
       <c r="B84">
-        <v>-0.001260338066197299</v>
+        <v>-0.001260338511776154</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>43921</v>
       </c>
       <c r="B90">
-        <v>-0.01131256689345547</v>
+        <v>-0.01131203578870524</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>44074</v>
       </c>
       <c r="B95">
-        <v>-0.002659147491108715</v>
+        <v>-0.002659236248130968</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>44104</v>
       </c>
       <c r="B96">
-        <v>-0.006171257839636536</v>
+        <v>-0.006171307149399168</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>44135</v>
       </c>
       <c r="B97">
-        <v>-0.01420801916949395</v>
+        <v>-0.01420830342319856</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>44227</v>
       </c>
       <c r="B100">
-        <v>-0.004705921503166354</v>
+        <v>-0.00470583829325821</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>44255</v>
       </c>
       <c r="B101">
-        <v>-0.0163600021894369</v>
+        <v>-0.01635990318932232</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>44286</v>
       </c>
       <c r="B102">
-        <v>-0.02870687141026337</v>
+        <v>-0.02870663127882861</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>44316</v>
       </c>
       <c r="B103">
-        <v>-0.02075587267639294</v>
+        <v>-0.02075577186716081</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>44347</v>
       </c>
       <c r="B104">
-        <v>-0.01678077342969557</v>
+        <v>-0.01678060447767052</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>44377</v>
       </c>
       <c r="B105">
-        <v>-0.008903893024376539</v>
+        <v>-0.008903790176592425</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>44408</v>
       </c>
       <c r="B106">
-        <v>-0.0007043910502465097</v>
+        <v>-0.0007042474354452999</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>44439</v>
       </c>
       <c r="B107">
-        <v>-0.001535383670417409</v>
+        <v>-0.001535286364563075</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>44469</v>
       </c>
       <c r="B108">
-        <v>-0.01333706472138113</v>
+        <v>-0.01333684185534539</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>44500</v>
       </c>
       <c r="B109">
-        <v>-0.01172209299202843</v>
+        <v>-0.01172193651877785</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>44530</v>
       </c>
       <c r="B110">
-        <v>-0.01453990612951682</v>
+        <v>-0.01453969188169519</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>44561</v>
       </c>
       <c r="B111">
-        <v>-0.009539466250434687</v>
+        <v>-0.009539402688215492</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>44592</v>
       </c>
       <c r="B112">
-        <v>-0.03375900493118935</v>
+        <v>-0.03375895593900154</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>44620</v>
       </c>
       <c r="B113">
-        <v>-0.04066039204227602</v>
+        <v>-0.04066051218609675</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>44651</v>
       </c>
       <c r="B114">
-        <v>-0.06375928969211292</v>
+        <v>-0.0637594100731079</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>44681</v>
       </c>
       <c r="B115">
-        <v>-0.09541545720340973</v>
+        <v>-0.09541561394184943</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>44712</v>
       </c>
       <c r="B116">
-        <v>-0.09154796825650501</v>
+        <v>-0.09154810313928555</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>44742</v>
       </c>
       <c r="B117">
-        <v>-0.1107033704505538</v>
+        <v>-0.1107034345576958</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1324,7 +1324,7 @@
         <v>44773</v>
       </c>
       <c r="B118">
-        <v>-0.09511439166115336</v>
+        <v>-0.09511311869958435</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1332,7 +1332,7 @@
         <v>44804</v>
       </c>
       <c r="B119">
-        <v>-0.1180064006727418</v>
+        <v>-0.11800535336499</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1340,7 +1340,7 @@
         <v>44834</v>
       </c>
       <c r="B120">
-        <v>-0.1569931691642819</v>
+        <v>-0.1569917658522281</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1348,7 +1348,7 @@
         <v>44865</v>
       </c>
       <c r="B121">
-        <v>-0.1616740961865868</v>
+        <v>-0.1616718103258951</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1356,7 +1356,7 @@
         <v>44895</v>
       </c>
       <c r="B122">
-        <v>-0.1306910956384441</v>
+        <v>-0.1306894503805045</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1364,7 +1364,7 @@
         <v>44926</v>
       </c>
       <c r="B123">
-        <v>-0.1384127427999198</v>
+        <v>-0.1384109598323955</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1372,7 +1372,7 @@
         <v>44957</v>
       </c>
       <c r="B124">
-        <v>-0.1120677857345992</v>
+        <v>-0.1120658858036612</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1380,7 +1380,7 @@
         <v>44985</v>
       </c>
       <c r="B125">
-        <v>-0.1320874007525402</v>
+        <v>-0.1320857685810867</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1388,7 +1388,7 @@
         <v>45016</v>
       </c>
       <c r="B126">
-        <v>-0.1105124346569492</v>
+        <v>-0.1105106218422128</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1396,7 +1396,7 @@
         <v>45046</v>
       </c>
       <c r="B127">
-        <v>-0.1050738564697692</v>
+        <v>-0.1050719501027431</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1404,7 +1404,7 @@
         <v>45077</v>
       </c>
       <c r="B128">
-        <v>-0.1159059154519542</v>
+        <v>-0.1159042099941834</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1412,7 +1412,7 @@
         <v>45107</v>
       </c>
       <c r="B129">
-        <v>-0.1140215903527907</v>
+        <v>-0.1140198381064466</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1420,7 +1420,7 @@
         <v>45138</v>
       </c>
       <c r="B130">
-        <v>-0.107131574766942</v>
+        <v>-0.107129771169353</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1428,7 +1428,7 @@
         <v>45169</v>
       </c>
       <c r="B131">
-        <v>-0.1118660282430482</v>
+        <v>-0.1118643064744092</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1436,7 +1436,7 @@
         <v>45199</v>
       </c>
       <c r="B132">
-        <v>-0.1290216109368852</v>
+        <v>-0.1290198063897728</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1444,7 +1444,7 @@
         <v>45230</v>
       </c>
       <c r="B133">
-        <v>-0.1401084843641568</v>
+        <v>-0.1401067661728264</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1452,7 +1452,7 @@
         <v>45260</v>
       </c>
       <c r="B134">
-        <v>-0.1114141984903517</v>
+        <v>-0.1114125580962154</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1460,7 +1460,7 @@
         <v>45291</v>
       </c>
       <c r="B135">
-        <v>-0.08834292559540809</v>
+        <v>-0.08834127193308859</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1468,7 +1468,7 @@
         <v>45322</v>
       </c>
       <c r="B136">
-        <v>-0.085940272310656</v>
+        <v>-0.08593859393661064</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1476,7 +1476,7 @@
         <v>45351</v>
       </c>
       <c r="B137">
-        <v>-0.08830733643007249</v>
+        <v>-0.08830563369022031</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1484,7 +1484,7 @@
         <v>45382</v>
       </c>
       <c r="B138">
-        <v>-0.07405713734312552</v>
+        <v>-0.0740554683489302</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1492,7 +1492,7 @@
         <v>45412</v>
       </c>
       <c r="B139">
-        <v>-0.09252931110701816</v>
+        <v>-0.09252772478492162</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1500,7 +1500,7 @@
         <v>45443</v>
       </c>
       <c r="B140">
-        <v>-0.0825421289836111</v>
+        <v>-0.08254055804702538</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1508,7 +1508,7 @@
         <v>45473</v>
       </c>
       <c r="B141">
-        <v>-0.07158368124621396</v>
+        <v>-0.07158205566458277</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1516,7 +1516,7 @@
         <v>45504</v>
       </c>
       <c r="B142">
-        <v>-0.05402049823431896</v>
+        <v>-0.05401882587063601</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1524,7 +1524,7 @@
         <v>45535</v>
       </c>
       <c r="B143">
-        <v>-0.04690836611421483</v>
+        <v>-0.04690669246082664</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1532,7 +1532,7 @@
         <v>45565</v>
       </c>
       <c r="B144">
-        <v>-0.03765068483526305</v>
+        <v>-0.03764898827782952</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1540,7 +1540,7 @@
         <v>45596</v>
       </c>
       <c r="B145">
-        <v>-0.049908787115656</v>
+        <v>-0.04990696278947868</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1548,7 +1548,7 @@
         <v>45626</v>
       </c>
       <c r="B146">
-        <v>-0.05831550227999596</v>
+        <v>-0.0537809386831881</v>
       </c>
     </row>
   </sheetData>
